--- a/Squads/D1/Augsburg_Heidenheim_squad.xlsx
+++ b/Squads/D1/Augsburg_Heidenheim_squad.xlsx
@@ -90,523 +90,523 @@
     <t>Aer%</t>
   </si>
   <si>
-    <t>645</t>
-  </si>
-  <si>
-    <t>673</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>1849</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>764</t>
+    <t>646</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>765</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>875</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>1059</t>
+  </si>
+  <si>
+    <t>1093</t>
+  </si>
+  <si>
+    <t>1512</t>
+  </si>
+  <si>
+    <t>2419</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>2378</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>693</t>
+  </si>
+  <si>
+    <t>1564</t>
+  </si>
+  <si>
+    <t>794</t>
+  </si>
+  <si>
+    <t>2154</t>
+  </si>
+  <si>
+    <t>2329</t>
+  </si>
+  <si>
+    <t>414</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>1413</t>
+  </si>
+  <si>
+    <t>1427</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>2185</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1409</t>
+  </si>
+  <si>
+    <t>1522</t>
+  </si>
+  <si>
+    <t>1762</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>689</t>
+  </si>
+  <si>
+    <t>1192</t>
+  </si>
+  <si>
+    <t>2144</t>
+  </si>
+  <si>
+    <t>2177</t>
+  </si>
+  <si>
+    <t>2332</t>
+  </si>
+  <si>
+    <t>Eren Dinkçi</t>
+  </si>
+  <si>
+    <t>Niklas Dorsch</t>
+  </si>
+  <si>
+    <t>Jeffrey Gouweleeuw</t>
+  </si>
+  <si>
+    <t>Mads Pedersen</t>
+  </si>
+  <si>
+    <t>Marvin Pieringer</t>
+  </si>
+  <si>
+    <t>Finn Dahmen</t>
+  </si>
+  <si>
+    <t>Ermedin Demirović</t>
+  </si>
+  <si>
+    <t>Ohis Felix Uduokhai</t>
+  </si>
+  <si>
+    <t>Elvis Rexhbeçaj</t>
+  </si>
+  <si>
+    <t>Jan-Niklas Beste</t>
+  </si>
+  <si>
+    <t>Benedikt Gimber</t>
+  </si>
+  <si>
+    <t>Robert Gumny</t>
+  </si>
+  <si>
+    <t>Iago</t>
+  </si>
+  <si>
+    <t>Kristijan Jakić</t>
+  </si>
+  <si>
+    <t>Kevin Mbabu</t>
+  </si>
+  <si>
+    <t>Ruben Vargas</t>
+  </si>
+  <si>
+    <t>Tim Kleindienst</t>
+  </si>
+  <si>
+    <t>Omar Traoré</t>
+  </si>
+  <si>
+    <t>Maximilian Bauer</t>
+  </si>
+  <si>
+    <t>Tim Breithaupt</t>
+  </si>
+  <si>
+    <t>Dion Drena Beljo</t>
+  </si>
+  <si>
+    <t>Sven Michel</t>
+  </si>
+  <si>
+    <t>Jonas Föhrenbach</t>
+  </si>
+  <si>
+    <t>Jan Schöppner</t>
+  </si>
+  <si>
+    <t>Norman Theuerkauf</t>
+  </si>
+  <si>
+    <t>Irvin Cardona</t>
+  </si>
+  <si>
+    <t>Adrian Beck</t>
+  </si>
+  <si>
+    <t>Marnon Busch</t>
+  </si>
+  <si>
+    <t>Patrick Mainka</t>
+  </si>
+  <si>
+    <t>Lennard Maloney</t>
+  </si>
+  <si>
+    <t>Kevin Müller</t>
+  </si>
+  <si>
+    <t>Florian Pick</t>
+  </si>
+  <si>
+    <t>Tim Siersleben</t>
+  </si>
+  <si>
+    <t>Pep Biel</t>
+  </si>
+  <si>
+    <t>Arne Engels</t>
+  </si>
+  <si>
+    <t>Fredrik Jensen</t>
+  </si>
+  <si>
+    <t>Arne Maier</t>
+  </si>
+  <si>
+    <t>Nathanael Mbuku</t>
+  </si>
+  <si>
+    <t>Masaya Okugawa</t>
+  </si>
+  <si>
+    <t>Patric Pfeiffer</t>
+  </si>
+  <si>
+    <t>Phillip Tietz</t>
+  </si>
+  <si>
+    <t>Nikola Dovedan</t>
+  </si>
+  <si>
+    <t>Thomas Keller</t>
+  </si>
+  <si>
+    <t>Stefan Schimmer</t>
+  </si>
+  <si>
+    <t>Kevin Sessa</t>
+  </si>
+  <si>
+    <t>Denis Thomalla</t>
+  </si>
+  <si>
+    <t>de GER</t>
+  </si>
+  <si>
+    <t>nl NED</t>
+  </si>
+  <si>
+    <t>dk DEN</t>
+  </si>
+  <si>
+    <t>ba BIH</t>
+  </si>
+  <si>
+    <t>pl POL</t>
+  </si>
+  <si>
+    <t>br BRA</t>
+  </si>
+  <si>
+    <t>hr CRO</t>
+  </si>
+  <si>
+    <t>ch SUI</t>
+  </si>
+  <si>
+    <t>fr FRA</t>
+  </si>
+  <si>
+    <t>us USA</t>
+  </si>
+  <si>
+    <t>es ESP</t>
+  </si>
+  <si>
+    <t>be BEL</t>
+  </si>
+  <si>
+    <t>fi FIN</t>
+  </si>
+  <si>
+    <t>jp JPN</t>
+  </si>
+  <si>
+    <t>at AUT</t>
+  </si>
+  <si>
+    <t>FW,MF</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>MF,FW</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>DF,FW</t>
+  </si>
+  <si>
+    <t>FW</t>
+  </si>
+  <si>
+    <t>MF,DF</t>
+  </si>
+  <si>
+    <t>FW,DF</t>
+  </si>
+  <si>
+    <t>Heidenheim</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>de Bundesliga</t>
+  </si>
+  <si>
+    <t>22-083</t>
+  </si>
+  <si>
+    <t>26-050</t>
+  </si>
+  <si>
+    <t>32-239</t>
+  </si>
+  <si>
+    <t>27-186</t>
+  </si>
+  <si>
+    <t>24-153</t>
+  </si>
+  <si>
+    <t>25-344</t>
+  </si>
+  <si>
+    <t>25-346</t>
+  </si>
+  <si>
+    <t>26-178</t>
+  </si>
+  <si>
+    <t>26-125</t>
+  </si>
+  <si>
+    <t>25-061</t>
+  </si>
+  <si>
+    <t>27-015</t>
+  </si>
+  <si>
+    <t>25-275</t>
+  </si>
+  <si>
+    <t>26-348</t>
+  </si>
+  <si>
+    <t>26-296</t>
+  </si>
+  <si>
+    <t>28-321</t>
+  </si>
+  <si>
+    <t>25-213</t>
+  </si>
+  <si>
+    <t>28-187</t>
+  </si>
+  <si>
+    <t>26-030</t>
+  </si>
+  <si>
+    <t>24-025</t>
+  </si>
+  <si>
+    <t>22-027</t>
+  </si>
+  <si>
+    <t>22-004</t>
+  </si>
+  <si>
+    <t>33-234</t>
+  </si>
+  <si>
+    <t>28-039</t>
+  </si>
+  <si>
+    <t>24-267</t>
+  </si>
+  <si>
+    <t>37-041</t>
+  </si>
+  <si>
+    <t>26-210</t>
+  </si>
+  <si>
+    <t>26-270</t>
+  </si>
+  <si>
+    <t>29-088</t>
+  </si>
+  <si>
+    <t>29-120</t>
+  </si>
+  <si>
+    <t>24-149</t>
+  </si>
+  <si>
+    <t>32-356</t>
+  </si>
+  <si>
+    <t>28-179</t>
+  </si>
+  <si>
+    <t>23-362</t>
+  </si>
+  <si>
+    <t>27-182</t>
+  </si>
+  <si>
+    <t>20-179</t>
+  </si>
+  <si>
+    <t>25-057</t>
+  </si>
+  <si>
+    <t>21-355</t>
+  </si>
+  <si>
+    <t>27-326</t>
+  </si>
+  <si>
+    <t>24-198</t>
+  </si>
+  <si>
+    <t>26-240</t>
+  </si>
+  <si>
+    <t>29-243</t>
+  </si>
+  <si>
+    <t>24-213</t>
+  </si>
+  <si>
+    <t>29-312</t>
+  </si>
+  <si>
+    <t>23-243</t>
+  </si>
+  <si>
+    <t>31-202</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2002</t>
   </si>
   <si>
     <t>1990</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>1505</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>2368</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>692</t>
-  </si>
-  <si>
-    <t>1557</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>2144</t>
-  </si>
-  <si>
-    <t>2319</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>1406</t>
-  </si>
-  <si>
-    <t>1420</t>
-  </si>
-  <si>
-    <t>1635</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>2175</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1515</t>
-  </si>
-  <si>
-    <t>1754</t>
-  </si>
-  <si>
-    <t>1895</t>
-  </si>
-  <si>
-    <t>2332</t>
-  </si>
-  <si>
-    <t>688</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>2134</t>
-  </si>
-  <si>
-    <t>2167</t>
-  </si>
-  <si>
-    <t>2322</t>
-  </si>
-  <si>
-    <t>Eren Dinkçi</t>
-  </si>
-  <si>
-    <t>Niklas Dorsch</t>
-  </si>
-  <si>
-    <t>Jeffrey Gouweleeuw</t>
-  </si>
-  <si>
-    <t>Mads Pedersen</t>
-  </si>
-  <si>
-    <t>Marvin Pieringer</t>
-  </si>
-  <si>
-    <t>Finn Dahmen</t>
-  </si>
-  <si>
-    <t>Ermedin Demirović</t>
-  </si>
-  <si>
-    <t>Ohis Felix Uduokhai</t>
-  </si>
-  <si>
-    <t>Elvis Rexhbeçaj</t>
-  </si>
-  <si>
-    <t>Jan-Niklas Beste</t>
-  </si>
-  <si>
-    <t>Benedikt Gimber</t>
-  </si>
-  <si>
-    <t>Robert Gumny</t>
-  </si>
-  <si>
-    <t>Iago</t>
-  </si>
-  <si>
-    <t>Kristijan Jakić</t>
-  </si>
-  <si>
-    <t>Kevin Mbabu</t>
-  </si>
-  <si>
-    <t>Ruben Vargas</t>
-  </si>
-  <si>
-    <t>Tim Kleindienst</t>
-  </si>
-  <si>
-    <t>Omar Traoré</t>
-  </si>
-  <si>
-    <t>Maximilian Bauer</t>
-  </si>
-  <si>
-    <t>Tim Breithaupt</t>
-  </si>
-  <si>
-    <t>Dion Drena Beljo</t>
-  </si>
-  <si>
-    <t>Sven Michel</t>
-  </si>
-  <si>
-    <t>Jonas Föhrenbach</t>
-  </si>
-  <si>
-    <t>Jan Schöppner</t>
-  </si>
-  <si>
-    <t>Norman Theuerkauf</t>
-  </si>
-  <si>
-    <t>Irvin Cardona</t>
-  </si>
-  <si>
-    <t>Adrian Beck</t>
-  </si>
-  <si>
-    <t>Marnon Busch</t>
-  </si>
-  <si>
-    <t>Patrick Mainka</t>
-  </si>
-  <si>
-    <t>Lennard Maloney</t>
-  </si>
-  <si>
-    <t>Kevin Müller</t>
-  </si>
-  <si>
-    <t>Florian Pick</t>
-  </si>
-  <si>
-    <t>Tim Siersleben</t>
-  </si>
-  <si>
-    <t>Pep Biel</t>
-  </si>
-  <si>
-    <t>Arne Engels</t>
-  </si>
-  <si>
-    <t>Fredrik Jensen</t>
-  </si>
-  <si>
-    <t>Arne Maier</t>
-  </si>
-  <si>
-    <t>Nathanael Mbuku</t>
-  </si>
-  <si>
-    <t>Masaya Okugawa</t>
-  </si>
-  <si>
-    <t>Patric Pfeiffer</t>
-  </si>
-  <si>
-    <t>Phillip Tietz</t>
-  </si>
-  <si>
-    <t>Nikola Dovedan</t>
-  </si>
-  <si>
-    <t>Thomas Keller</t>
-  </si>
-  <si>
-    <t>Stefan Schimmer</t>
-  </si>
-  <si>
-    <t>Kevin Sessa</t>
-  </si>
-  <si>
-    <t>Denis Thomalla</t>
-  </si>
-  <si>
-    <t>de GER</t>
-  </si>
-  <si>
-    <t>nl NED</t>
-  </si>
-  <si>
-    <t>dk DEN</t>
-  </si>
-  <si>
-    <t>ba BIH</t>
-  </si>
-  <si>
-    <t>pl POL</t>
-  </si>
-  <si>
-    <t>br BRA</t>
-  </si>
-  <si>
-    <t>hr CRO</t>
-  </si>
-  <si>
-    <t>ch SUI</t>
-  </si>
-  <si>
-    <t>fr FRA</t>
-  </si>
-  <si>
-    <t>us USA</t>
-  </si>
-  <si>
-    <t>es ESP</t>
-  </si>
-  <si>
-    <t>be BEL</t>
-  </si>
-  <si>
-    <t>fi FIN</t>
-  </si>
-  <si>
-    <t>jp JPN</t>
-  </si>
-  <si>
-    <t>at AUT</t>
-  </si>
-  <si>
-    <t>FW,MF</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>MF,FW</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>DF,FW</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>MF,DF</t>
-  </si>
-  <si>
-    <t>FW,DF</t>
-  </si>
-  <si>
-    <t>Heidenheim</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>de Bundesliga</t>
-  </si>
-  <si>
-    <t>22-076</t>
-  </si>
-  <si>
-    <t>26-043</t>
-  </si>
-  <si>
-    <t>32-232</t>
-  </si>
-  <si>
-    <t>27-179</t>
-  </si>
-  <si>
-    <t>24-146</t>
-  </si>
-  <si>
-    <t>25-337</t>
-  </si>
-  <si>
-    <t>25-339</t>
-  </si>
-  <si>
-    <t>26-171</t>
-  </si>
-  <si>
-    <t>26-118</t>
-  </si>
-  <si>
-    <t>25-054</t>
-  </si>
-  <si>
-    <t>27-008</t>
-  </si>
-  <si>
-    <t>25-268</t>
-  </si>
-  <si>
-    <t>26-341</t>
-  </si>
-  <si>
-    <t>26-289</t>
-  </si>
-  <si>
-    <t>28-314</t>
-  </si>
-  <si>
-    <t>25-206</t>
-  </si>
-  <si>
-    <t>28-180</t>
-  </si>
-  <si>
-    <t>26-023</t>
-  </si>
-  <si>
-    <t>24-018</t>
-  </si>
-  <si>
-    <t>22-020</t>
-  </si>
-  <si>
-    <t>21-363</t>
-  </si>
-  <si>
-    <t>33-227</t>
-  </si>
-  <si>
-    <t>28-032</t>
-  </si>
-  <si>
-    <t>24-260</t>
-  </si>
-  <si>
-    <t>37-034</t>
-  </si>
-  <si>
-    <t>26-203</t>
-  </si>
-  <si>
-    <t>26-263</t>
-  </si>
-  <si>
-    <t>29-081</t>
-  </si>
-  <si>
-    <t>29-113</t>
-  </si>
-  <si>
-    <t>24-142</t>
-  </si>
-  <si>
-    <t>32-349</t>
-  </si>
-  <si>
-    <t>28-172</t>
-  </si>
-  <si>
-    <t>23-355</t>
-  </si>
-  <si>
-    <t>27-175</t>
-  </si>
-  <si>
-    <t>20-172</t>
-  </si>
-  <si>
-    <t>25-050</t>
-  </si>
-  <si>
-    <t>21-348</t>
-  </si>
-  <si>
-    <t>27-319</t>
-  </si>
-  <si>
-    <t>24-191</t>
-  </si>
-  <si>
-    <t>26-233</t>
-  </si>
-  <si>
-    <t>29-236</t>
-  </si>
-  <si>
-    <t>24-206</t>
-  </si>
-  <si>
-    <t>29-305</t>
-  </si>
-  <si>
-    <t>23-236</t>
-  </si>
-  <si>
-    <t>31-195</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2002</t>
   </si>
   <si>
     <t>1987</t>
@@ -824,7 +824,7 @@
         <v>25</v>
       </c>
       <c r="B2" t="n">
-        <v>684.0</v>
+        <v>685.0</v>
       </c>
       <c r="C2" t="s">
         <v>71</v>
@@ -848,10 +848,10 @@
         <v>189</v>
       </c>
       <c r="J2" t="n">
-        <v>19.3</v>
+        <v>20.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="L2" t="n">
         <v>0.0</v>
@@ -860,7 +860,7 @@
         <v>0.0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.0</v>
+        <v>23.0</v>
       </c>
       <c r="O2" t="n">
         <v>19.0</v>
@@ -869,10 +869,10 @@
         <v>1.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="S2" t="n">
         <v>11.0</v>
@@ -887,16 +887,16 @@
         <v>0.0</v>
       </c>
       <c r="W2" t="n">
-        <v>100.0</v>
+        <v>107.0</v>
       </c>
       <c r="X2" t="n">
         <v>10.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>38.5</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="3">
@@ -904,7 +904,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="n">
-        <v>715.0</v>
+        <v>716.0</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
@@ -928,7 +928,7 @@
         <v>190</v>
       </c>
       <c r="J3" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="K3" t="n">
         <v>5.0</v>
@@ -967,7 +967,7 @@
         <v>0.0</v>
       </c>
       <c r="W3" t="n">
-        <v>100.0</v>
+        <v>101.0</v>
       </c>
       <c r="X3" t="n">
         <v>9.0</v>
@@ -984,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="n">
-        <v>970.0</v>
+        <v>972.0</v>
       </c>
       <c r="C4" t="s">
         <v>73</v>
@@ -1008,7 +1008,7 @@
         <v>191</v>
       </c>
       <c r="J4" t="n">
-        <v>18.0</v>
+        <v>18.8</v>
       </c>
       <c r="K4" t="n">
         <v>5.0</v>
@@ -1035,7 +1035,7 @@
         <v>24.0</v>
       </c>
       <c r="S4" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="T4" t="n">
         <v>0.0</v>
@@ -1047,16 +1047,16 @@
         <v>0.0</v>
       </c>
       <c r="W4" t="n">
-        <v>109.0</v>
+        <v>113.0</v>
       </c>
       <c r="X4" t="n">
-        <v>32.0</v>
+        <v>33.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>55.2</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="5">
@@ -1064,7 +1064,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="n">
-        <v>1954.0</v>
+        <v>1962.0</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -1144,7 +1144,7 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>2014.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C6" t="s">
         <v>75</v>
@@ -1165,10 +1165,10 @@
         <v>148</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>10.8</v>
+        <v>11.2</v>
       </c>
       <c r="K6" t="n">
         <v>5.0</v>
@@ -1180,7 +1180,7 @@
         <v>0.0</v>
       </c>
       <c r="N6" t="n">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="O6" t="n">
         <v>20.0</v>
@@ -1207,16 +1207,16 @@
         <v>0.0</v>
       </c>
       <c r="W6" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="X6" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>50.0</v>
+        <v>52.3</v>
       </c>
     </row>
     <row r="7">
@@ -1224,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>593.0</v>
+        <v>594.0</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
@@ -1248,7 +1248,7 @@
         <v>190</v>
       </c>
       <c r="J7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K7" t="n">
         <v>4.0</v>
@@ -1287,7 +1287,7 @@
         <v>1.0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="X7" t="n">
         <v>5.0</v>
@@ -1304,7 +1304,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="n">
-        <v>638.0</v>
+        <v>639.0</v>
       </c>
       <c r="C8" t="s">
         <v>77</v>
@@ -1313,7 +1313,7 @@
         <v>120</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F8" t="s">
         <v>142</v>
@@ -1328,7 +1328,7 @@
         <v>190</v>
       </c>
       <c r="J8" t="n">
-        <v>22.2</v>
+        <v>23.0</v>
       </c>
       <c r="K8" t="n">
         <v>4.0</v>
@@ -1340,7 +1340,7 @@
         <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O8" t="n">
         <v>25.0</v>
@@ -1367,16 +1367,16 @@
         <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="X8" t="n">
         <v>38.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>62.0</v>
+        <v>64.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>38.0</v>
+        <v>37.3</v>
       </c>
     </row>
     <row r="9">
@@ -1384,7 +1384,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>814.0</v>
+        <v>815.0</v>
       </c>
       <c r="C9" t="s">
         <v>78</v>
@@ -1405,10 +1405,10 @@
         <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J9" t="n">
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
       <c r="K9" t="n">
         <v>4.0</v>
@@ -1420,7 +1420,7 @@
         <v>1.0</v>
       </c>
       <c r="N9" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="O9" t="n">
         <v>16.0</v>
@@ -1432,7 +1432,7 @@
         <v>2.0</v>
       </c>
       <c r="R9" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="S9" t="n">
         <v>12.0</v>
@@ -1447,16 +1447,16 @@
         <v>1.0</v>
       </c>
       <c r="W9" t="n">
-        <v>110.0</v>
+        <v>117.0</v>
       </c>
       <c r="X9" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>60.7</v>
+        <v>58.8</v>
       </c>
     </row>
     <row r="10">
@@ -1464,7 +1464,7 @@
         <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2103.0</v>
+        <v>2112.0</v>
       </c>
       <c r="C10" t="s">
         <v>79</v>
@@ -1485,7 +1485,7 @@
         <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" t="n">
         <v>21.1</v>
@@ -1544,7 +1544,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>284.0</v>
+        <v>285.0</v>
       </c>
       <c r="C11" t="s">
         <v>80</v>
@@ -1565,7 +1565,7 @@
         <v>153</v>
       </c>
       <c r="I11" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J11" t="n">
         <v>19.3</v>
@@ -1589,7 +1589,7 @@
         <v>2.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.0</v>
+        <v>175.0</v>
       </c>
       <c r="R11" t="n">
         <v>14.0</v>
@@ -1624,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="n">
-        <v>931.0</v>
+        <v>932.0</v>
       </c>
       <c r="C12" t="s">
         <v>81</v>
@@ -1645,10 +1645,10 @@
         <v>154</v>
       </c>
       <c r="I12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J12" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="K12" t="n">
         <v>4.0</v>
@@ -1672,10 +1672,10 @@
         <v>3.0</v>
       </c>
       <c r="R12" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="S12" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="T12" t="n">
         <v>0.0</v>
@@ -1684,19 +1684,19 @@
         <v>2.0</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W12" t="n">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
       <c r="X12" t="n">
         <v>27.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>52.9</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="13">
@@ -1704,7 +1704,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="n">
-        <v>1018.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C13" t="s">
         <v>82</v>
@@ -1784,7 +1784,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="n">
-        <v>1119.0</v>
+        <v>1122.0</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
@@ -1805,10 +1805,10 @@
         <v>156</v>
       </c>
       <c r="I14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J14" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="K14" t="n">
         <v>3.0</v>
@@ -1820,16 +1820,16 @@
         <v>0.0</v>
       </c>
       <c r="N14" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="P14" t="n">
         <v>4.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="R14" t="n">
         <v>11.0</v>
@@ -1847,16 +1847,16 @@
         <v>0.0</v>
       </c>
       <c r="W14" t="n">
-        <v>80.0</v>
+        <v>86.0</v>
       </c>
       <c r="X14" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="Y14" t="n">
         <v>13.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>51.9</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="15">
@@ -1864,7 +1864,7 @@
         <v>38</v>
       </c>
       <c r="B15" t="n">
-        <v>1155.0</v>
+        <v>1158.0</v>
       </c>
       <c r="C15" t="s">
         <v>84</v>
@@ -1885,10 +1885,10 @@
         <v>157</v>
       </c>
       <c r="I15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J15" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="K15" t="n">
         <v>3.0</v>
@@ -1900,7 +1900,7 @@
         <v>0.0</v>
       </c>
       <c r="N15" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O15" t="n">
         <v>8.0</v>
@@ -1912,7 +1912,7 @@
         <v>4.0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="S15" t="n">
         <v>8.0</v>
@@ -1927,16 +1927,16 @@
         <v>0.0</v>
       </c>
       <c r="W15" t="n">
-        <v>30.0</v>
+        <v>34.0</v>
       </c>
       <c r="X15" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>55.6</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="16">
@@ -1944,7 +1944,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="n">
-        <v>1598.0</v>
+        <v>1605.0</v>
       </c>
       <c r="C16" t="s">
         <v>85</v>
@@ -1965,10 +1965,10 @@
         <v>158</v>
       </c>
       <c r="I16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J16" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="K16" t="n">
         <v>3.0</v>
@@ -1980,7 +1980,7 @@
         <v>0.0</v>
       </c>
       <c r="N16" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="O16" t="n">
         <v>17.0</v>
@@ -1989,7 +1989,7 @@
         <v>1.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="R16" t="n">
         <v>17.0</v>
@@ -2007,16 +2007,16 @@
         <v>0.0</v>
       </c>
       <c r="W16" t="n">
-        <v>91.0</v>
+        <v>93.0</v>
       </c>
       <c r="X16" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z16" t="n">
-        <v>65.5</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="17">
@@ -2024,7 +2024,7 @@
         <v>40</v>
       </c>
       <c r="B17" t="n">
-        <v>2540.0</v>
+        <v>2550.0</v>
       </c>
       <c r="C17" t="s">
         <v>86</v>
@@ -2048,7 +2048,7 @@
         <v>190</v>
       </c>
       <c r="J17" t="n">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.0</v>
@@ -2069,13 +2069,13 @@
         <v>14.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="R17" t="n">
         <v>5.0</v>
       </c>
       <c r="S17" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="T17" t="n">
         <v>1.0</v>
@@ -2087,16 +2087,16 @@
         <v>0.0</v>
       </c>
       <c r="W17" t="n">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="X17" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Z17" t="n">
-        <v>40.5</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="18">
@@ -2104,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="n">
-        <v>1278.0</v>
+        <v>1281.0</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -2125,10 +2125,10 @@
         <v>160</v>
       </c>
       <c r="I18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J18" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="K18" t="n">
         <v>3.0</v>
@@ -2167,16 +2167,16 @@
         <v>0.0</v>
       </c>
       <c r="W18" t="n">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="X18" t="n">
-        <v>126.0</v>
+        <v>132.0</v>
       </c>
       <c r="Y18" t="n">
-        <v>75.0</v>
+        <v>81.0</v>
       </c>
       <c r="Z18" t="n">
-        <v>62.7</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="19">
@@ -2184,7 +2184,7 @@
         <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>2498.0</v>
+        <v>2508.0</v>
       </c>
       <c r="C19" t="s">
         <v>88</v>
@@ -2208,7 +2208,7 @@
         <v>190</v>
       </c>
       <c r="J19" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.0</v>
@@ -2220,22 +2220,22 @@
         <v>0.0</v>
       </c>
       <c r="N19" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="O19" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="P19" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.0</v>
+        <v>49.0</v>
       </c>
       <c r="R19" t="n">
         <v>23.0</v>
       </c>
       <c r="S19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="T19" t="n">
         <v>0.0</v>
@@ -2247,16 +2247,16 @@
         <v>0.0</v>
       </c>
       <c r="W19" t="n">
-        <v>112.0</v>
+        <v>114.0</v>
       </c>
       <c r="X19" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z19" t="n">
-        <v>40.9</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="20">
@@ -2264,7 +2264,7 @@
         <v>43</v>
       </c>
       <c r="B20" t="n">
-        <v>223.0</v>
+        <v>224.0</v>
       </c>
       <c r="C20" t="s">
         <v>89</v>
@@ -2285,10 +2285,10 @@
         <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J20" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="K20" t="n">
         <v>2.0</v>
@@ -2312,7 +2312,7 @@
         <v>0.0</v>
       </c>
       <c r="R20" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="S20" t="n">
         <v>6.0</v>
@@ -2327,16 +2327,16 @@
         <v>0.0</v>
       </c>
       <c r="W20" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="X20" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y20" t="n">
         <v>13.0</v>
       </c>
       <c r="Z20" t="n">
-        <v>51.9</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="21">
@@ -2344,7 +2344,7 @@
         <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="C21" t="s">
         <v>90</v>
@@ -2365,7 +2365,7 @@
         <v>163</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J21" t="n">
         <v>2.9</v>
@@ -2424,7 +2424,7 @@
         <v>45</v>
       </c>
       <c r="B22" t="n">
-        <v>735.0</v>
+        <v>736.0</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -2445,10 +2445,10 @@
         <v>164</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J22" t="n">
-        <v>5.0</v>
+        <v>5.2</v>
       </c>
       <c r="K22" t="n">
         <v>2.0</v>
@@ -2463,7 +2463,7 @@
         <v>6.0</v>
       </c>
       <c r="O22" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P22" t="n">
         <v>5.0</v>
@@ -2504,7 +2504,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="n">
-        <v>1654.0</v>
+        <v>1661.0</v>
       </c>
       <c r="C23" t="s">
         <v>92</v>
@@ -2525,7 +2525,7 @@
         <v>165</v>
       </c>
       <c r="I23" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="J23" t="n">
         <v>5.3</v>
@@ -2584,7 +2584,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>844.0</v>
+        <v>845.0</v>
       </c>
       <c r="C24" t="s">
         <v>93</v>
@@ -2608,7 +2608,7 @@
         <v>192</v>
       </c>
       <c r="J24" t="n">
-        <v>20.9</v>
+        <v>21.9</v>
       </c>
       <c r="K24" t="n">
         <v>2.0</v>
@@ -2623,13 +2623,13 @@
         <v>12.0</v>
       </c>
       <c r="O24" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P24" t="n">
         <v>1.0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="R24" t="n">
         <v>20.0</v>
@@ -2647,16 +2647,16 @@
         <v>1.0</v>
       </c>
       <c r="W24" t="n">
-        <v>106.0</v>
+        <v>111.0</v>
       </c>
       <c r="X24" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="Y24" t="n">
         <v>15.0</v>
       </c>
       <c r="Z24" t="n">
-        <v>59.5</v>
+        <v>60.5</v>
       </c>
     </row>
     <row r="25">
@@ -2664,7 +2664,7 @@
         <v>48</v>
       </c>
       <c r="B25" t="n">
-        <v>2264.0</v>
+        <v>2274.0</v>
       </c>
       <c r="C25" t="s">
         <v>94</v>
@@ -2685,10 +2685,10 @@
         <v>167</v>
       </c>
       <c r="I25" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J25" t="n">
-        <v>12.3</v>
+        <v>13.3</v>
       </c>
       <c r="K25" t="n">
         <v>2.0</v>
@@ -2700,7 +2700,7 @@
         <v>0.0</v>
       </c>
       <c r="N25" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O25" t="n">
         <v>9.0</v>
@@ -2709,13 +2709,13 @@
         <v>1.0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="R25" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="S25" t="n">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="T25" t="n">
         <v>0.0</v>
@@ -2727,16 +2727,16 @@
         <v>0.0</v>
       </c>
       <c r="W25" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="X25" t="n">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="Z25" t="n">
-        <v>56.4</v>
+        <v>53.3</v>
       </c>
     </row>
     <row r="26">
@@ -2744,7 +2744,7 @@
         <v>49</v>
       </c>
       <c r="B26" t="n">
-        <v>2448.0</v>
+        <v>2458.0</v>
       </c>
       <c r="C26" t="s">
         <v>95</v>
@@ -2768,7 +2768,7 @@
         <v>198</v>
       </c>
       <c r="J26" t="n">
-        <v>8.9</v>
+        <v>9.3</v>
       </c>
       <c r="K26" t="n">
         <v>2.0</v>
@@ -2780,7 +2780,7 @@
         <v>0.0</v>
       </c>
       <c r="N26" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="O26" t="n">
         <v>12.0</v>
@@ -2789,10 +2789,10 @@
         <v>0.0</v>
       </c>
       <c r="Q26" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="R26" t="n">
         <v>11.0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>10.0</v>
       </c>
       <c r="S26" t="n">
         <v>8.0</v>
@@ -2807,7 +2807,7 @@
         <v>0.0</v>
       </c>
       <c r="W26" t="n">
-        <v>44.0</v>
+        <v>51.0</v>
       </c>
       <c r="X26" t="n">
         <v>7.0</v>
@@ -2824,7 +2824,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>441.0</v>
+        <v>442.0</v>
       </c>
       <c r="C27" t="s">
         <v>96</v>
@@ -2845,7 +2845,7 @@
         <v>169</v>
       </c>
       <c r="I27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J27" t="n">
         <v>0.6</v>
@@ -2904,7 +2904,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="C28" t="s">
         <v>97</v>
@@ -2925,10 +2925,10 @@
         <v>170</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J28" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="K28" t="n">
         <v>1.0</v>
@@ -2943,7 +2943,7 @@
         <v>13.0</v>
       </c>
       <c r="O28" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="P28" t="n">
         <v>2.0</v>
@@ -2967,16 +2967,16 @@
         <v>0.0</v>
       </c>
       <c r="W28" t="n">
-        <v>65.0</v>
+        <v>71.0</v>
       </c>
       <c r="X28" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="Z28" t="n">
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="29">
@@ -2984,7 +2984,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>393.0</v>
+        <v>394.0</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
@@ -3008,7 +3008,7 @@
         <v>199</v>
       </c>
       <c r="J29" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="K29" t="n">
         <v>1.0</v>
@@ -3029,13 +3029,13 @@
         <v>0.0</v>
       </c>
       <c r="Q29" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="R29" t="n">
         <v>8.0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="T29" t="n">
         <v>0.0</v>
@@ -3047,16 +3047,16 @@
         <v>0.0</v>
       </c>
       <c r="W29" t="n">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y29" t="n">
         <v>11.0</v>
       </c>
       <c r="Z29" t="n">
-        <v>35.3</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="30">
@@ -3064,7 +3064,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>1488.0</v>
+        <v>1495.0</v>
       </c>
       <c r="C30" t="s">
         <v>99</v>
@@ -3088,7 +3088,7 @@
         <v>199</v>
       </c>
       <c r="J30" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K30" t="n">
         <v>1.0</v>
@@ -3103,10 +3103,10 @@
         <v>17.0</v>
       </c>
       <c r="O30" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q30" t="n">
         <v>0.0</v>
@@ -3115,7 +3115,7 @@
         <v>34.0</v>
       </c>
       <c r="S30" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="T30" t="n">
         <v>0.0</v>
@@ -3127,16 +3127,16 @@
         <v>0.0</v>
       </c>
       <c r="W30" t="n">
-        <v>139.0</v>
+        <v>143.0</v>
       </c>
       <c r="X30" t="n">
-        <v>74.0</v>
+        <v>80.0</v>
       </c>
       <c r="Y30" t="n">
         <v>59.0</v>
       </c>
       <c r="Z30" t="n">
-        <v>55.6</v>
+        <v>57.6</v>
       </c>
     </row>
     <row r="31">
@@ -3144,7 +3144,7 @@
         <v>54</v>
       </c>
       <c r="B31" t="n">
-        <v>1504.0</v>
+        <v>1511.0</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
@@ -3165,7 +3165,7 @@
         <v>173</v>
       </c>
       <c r="I31" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J31" t="n">
         <v>21.5</v>
@@ -3195,7 +3195,7 @@
         <v>23.0</v>
       </c>
       <c r="S31" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="T31" t="n">
         <v>0.0</v>
@@ -3210,13 +3210,13 @@
         <v>112.0</v>
       </c>
       <c r="X31" t="n">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="Y31" t="n">
         <v>45.0</v>
       </c>
       <c r="Z31" t="n">
-        <v>56.7</v>
+        <v>57.1</v>
       </c>
     </row>
     <row r="32">
@@ -3224,7 +3224,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="n">
-        <v>1734.0</v>
+        <v>1741.0</v>
       </c>
       <c r="C32" t="s">
         <v>101</v>
@@ -3248,46 +3248,46 @@
         <v>191</v>
       </c>
       <c r="J32" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" t="n">
         <v>23.0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>19.0</v>
       </c>
       <c r="X32" t="n">
         <v>3.0</v>
@@ -3304,7 +3304,7 @@
         <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>2011.0</v>
+        <v>2019.0</v>
       </c>
       <c r="C33" t="s">
         <v>102</v>
@@ -3325,10 +3325,10 @@
         <v>175</v>
       </c>
       <c r="I33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J33" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="K33" t="n">
         <v>1.0</v>
@@ -3349,7 +3349,7 @@
         <v>0.0</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.0</v>
+        <v>30.0</v>
       </c>
       <c r="R33" t="n">
         <v>2.0</v>
@@ -3384,7 +3384,7 @@
         <v>57</v>
       </c>
       <c r="B34" t="n">
-        <v>2298.0</v>
+        <v>2308.0</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
@@ -3405,7 +3405,7 @@
         <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J34" t="n">
         <v>9.6</v>
@@ -3464,7 +3464,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="n">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
@@ -3473,7 +3473,7 @@
         <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
         <v>142</v>
@@ -3488,7 +3488,7 @@
         <v>192</v>
       </c>
       <c r="J35" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="K35" t="n">
         <v>0.0</v>
@@ -3500,7 +3500,7 @@
         <v>0.0</v>
       </c>
       <c r="N35" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="O35" t="n">
         <v>0.0</v>
@@ -3509,7 +3509,7 @@
         <v>0.0</v>
       </c>
       <c r="Q35" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="R35" t="n">
         <v>0.0</v>
@@ -3527,16 +3527,16 @@
         <v>0.0</v>
       </c>
       <c r="W35" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y35" t="n">
         <v>3.0</v>
       </c>
       <c r="Z35" t="n">
-        <v>25.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="36">
@@ -3544,7 +3544,7 @@
         <v>59</v>
       </c>
       <c r="B36" t="n">
-        <v>780.0</v>
+        <v>781.0</v>
       </c>
       <c r="C36" t="s">
         <v>105</v>
@@ -3568,7 +3568,7 @@
         <v>200</v>
       </c>
       <c r="J36" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="K36" t="n">
         <v>0.0</v>
@@ -3589,7 +3589,7 @@
         <v>1.0</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.0</v>
+        <v>68.0</v>
       </c>
       <c r="R36" t="n">
         <v>7.0</v>
@@ -3613,10 +3613,10 @@
         <v>9.0</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="Z36" t="n">
-        <v>40.9</v>
+        <v>39.1</v>
       </c>
     </row>
     <row r="37">
@@ -3624,7 +3624,7 @@
         <v>60</v>
       </c>
       <c r="B37" t="n">
-        <v>1168.0</v>
+        <v>1171.0</v>
       </c>
       <c r="C37" t="s">
         <v>106</v>
@@ -3645,10 +3645,10 @@
         <v>151</v>
       </c>
       <c r="I37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J37" t="n">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="K37" t="n">
         <v>0.0</v>
@@ -3675,7 +3675,7 @@
         <v>10.0</v>
       </c>
       <c r="S37" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="T37" t="n">
         <v>0.0</v>
@@ -3687,7 +3687,7 @@
         <v>0.0</v>
       </c>
       <c r="W37" t="n">
-        <v>47.0</v>
+        <v>53.0</v>
       </c>
       <c r="X37" t="n">
         <v>18.0</v>
@@ -3704,7 +3704,7 @@
         <v>61</v>
       </c>
       <c r="B38" t="n">
-        <v>1484.0</v>
+        <v>1491.0</v>
       </c>
       <c r="C38" t="s">
         <v>107</v>
@@ -3725,10 +3725,10 @@
         <v>179</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J38" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="K38" t="n">
         <v>0.0</v>
@@ -3743,19 +3743,19 @@
         <v>2.0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="P38" t="n">
         <v>0.0</v>
       </c>
       <c r="Q38" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="R38" t="n">
         <v>1.0</v>
       </c>
       <c r="S38" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T38" t="n">
         <v>0.0</v>
@@ -3767,16 +3767,16 @@
         <v>0.0</v>
       </c>
       <c r="W38" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="39">
@@ -3784,7 +3784,7 @@
         <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>1608.0</v>
+        <v>1615.0</v>
       </c>
       <c r="C39" t="s">
         <v>108</v>
@@ -3805,7 +3805,7 @@
         <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J39" t="n">
         <v>0.1</v>
@@ -3864,7 +3864,7 @@
         <v>63</v>
       </c>
       <c r="B40" t="n">
-        <v>1856.0</v>
+        <v>1864.0</v>
       </c>
       <c r="C40" t="s">
         <v>109</v>
@@ -3944,7 +3944,7 @@
         <v>64</v>
       </c>
       <c r="B41" t="n">
-        <v>2003.0</v>
+        <v>2011.0</v>
       </c>
       <c r="C41" t="s">
         <v>110</v>
@@ -3965,7 +3965,7 @@
         <v>182</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J41" t="n">
         <v>4.1</v>
@@ -4024,7 +4024,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="n">
-        <v>2461.0</v>
+        <v>2471.0</v>
       </c>
       <c r="C42" t="s">
         <v>111</v>
@@ -4045,10 +4045,10 @@
         <v>183</v>
       </c>
       <c r="I42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J42" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
@@ -4060,7 +4060,7 @@
         <v>0.0</v>
       </c>
       <c r="N42" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="O42" t="n">
         <v>13.0</v>
@@ -4087,16 +4087,16 @@
         <v>0.0</v>
       </c>
       <c r="W42" t="n">
-        <v>62.0</v>
+        <v>69.0</v>
       </c>
       <c r="X42" t="n">
-        <v>67.0</v>
+        <v>69.0</v>
       </c>
       <c r="Y42" t="n">
-        <v>84.0</v>
+        <v>89.0</v>
       </c>
       <c r="Z42" t="n">
-        <v>44.4</v>
+        <v>43.7</v>
       </c>
     </row>
     <row r="43">
@@ -4104,7 +4104,7 @@
         <v>66</v>
       </c>
       <c r="B43" t="n">
-        <v>730.0</v>
+        <v>731.0</v>
       </c>
       <c r="C43" t="s">
         <v>112</v>
@@ -4128,7 +4128,7 @@
         <v>199</v>
       </c>
       <c r="J43" t="n">
-        <v>4.0</v>
+        <v>4.8</v>
       </c>
       <c r="K43" t="n">
         <v>0.0</v>
@@ -4143,7 +4143,7 @@
         <v>8.0</v>
       </c>
       <c r="O43" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="P43" t="n">
         <v>0.0</v>
@@ -4155,7 +4155,7 @@
         <v>1.0</v>
       </c>
       <c r="S43" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="T43" t="n">
         <v>0.0</v>
@@ -4167,16 +4167,16 @@
         <v>0.0</v>
       </c>
       <c r="W43" t="n">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y43" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.0</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="44">
@@ -4184,7 +4184,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="n">
-        <v>1262.0</v>
+        <v>1265.0</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
@@ -4205,7 +4205,7 @@
         <v>185</v>
       </c>
       <c r="I44" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -4264,7 +4264,7 @@
         <v>68</v>
       </c>
       <c r="B45" t="n">
-        <v>2254.0</v>
+        <v>2264.0</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
@@ -4288,7 +4288,7 @@
         <v>199</v>
       </c>
       <c r="J45" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K45" t="n">
         <v>0.0</v>
@@ -4309,7 +4309,7 @@
         <v>0.0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R45" t="n">
         <v>1.0</v>
@@ -4333,10 +4333,10 @@
         <v>8.0</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="Z45" t="n">
-        <v>50.0</v>
+        <v>44.4</v>
       </c>
     </row>
     <row r="46">
@@ -4344,7 +4344,7 @@
         <v>69</v>
       </c>
       <c r="B46" t="n">
-        <v>2290.0</v>
+        <v>2300.0</v>
       </c>
       <c r="C46" t="s">
         <v>115</v>
@@ -4365,10 +4365,10 @@
         <v>187</v>
       </c>
       <c r="I46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J46" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="K46" t="n">
         <v>0.0</v>
@@ -4383,13 +4383,13 @@
         <v>6.0</v>
       </c>
       <c r="O46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="P46" t="n">
         <v>0.0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="R46" t="n">
         <v>2.0</v>
@@ -4407,16 +4407,16 @@
         <v>0.0</v>
       </c>
       <c r="W46" t="n">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="X46" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="Z46" t="n">
-        <v>40.0</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="47">
@@ -4424,7 +4424,7 @@
         <v>70</v>
       </c>
       <c r="B47" t="n">
-        <v>2451.0</v>
+        <v>2461.0</v>
       </c>
       <c r="C47" t="s">
         <v>116</v>
@@ -4619,7 +4619,7 @@
         <v>31</v>
       </c>
       <c r="B2" t="n">
-        <v>638.0</v>
+        <v>639.0</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -4628,7 +4628,7 @@
         <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
         <v>142</v>
@@ -4643,28 +4643,28 @@
         <v>190</v>
       </c>
       <c r="J2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K2" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L2" t="e">
         <v>#N/A</v>
       </c>
       <c r="M2" t="n">
-        <v>22.2</v>
+        <v>23.0</v>
       </c>
       <c r="N2" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P2" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="R2" t="n">
         <v>3.0</v>
@@ -4679,75 +4679,75 @@
         <v>0.0</v>
       </c>
       <c r="V2" t="n">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="W2" t="n">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.9</v>
+        <v>11.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0</v>
+        <v>111.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B3" t="n">
-        <v>284.0</v>
+        <v>2471.0</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G3" t="s">
         <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="I3" t="s">
         <v>193</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="K3" t="n">
         <v>21.0</v>
@@ -4756,16 +4756,16 @@
         <v>#N/A</v>
       </c>
       <c r="M3" t="n">
-        <v>19.3</v>
+        <v>18.0</v>
       </c>
       <c r="N3" t="n">
         <v>7.0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="P3" t="n">
-        <v>15.0</v>
+        <v>9.0</v>
       </c>
       <c r="Q3" t="n">
         <v>7.0</v>
@@ -4774,63 +4774,63 @@
         <v>0.0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="U3" t="n">
         <v>0.0</v>
       </c>
       <c r="V3" t="n">
-        <v>3.7</v>
+        <v>6.9</v>
       </c>
       <c r="W3" t="n">
-        <v>2.9</v>
+        <v>6.9</v>
       </c>
       <c r="X3" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>48.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.0</v>
+        <v>78.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B4" t="n">
-        <v>684.0</v>
+        <v>285.0</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
         <v>117</v>
@@ -4845,16 +4845,16 @@
         <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="L4" t="e">
         <v>#N/A</v>
@@ -4866,10 +4866,10 @@
         <v>7.0</v>
       </c>
       <c r="O4" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="P4" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="Q4" t="n">
         <v>7.0</v>
@@ -4878,69 +4878,69 @@
         <v>0.0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T4" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="U4" t="n">
         <v>0.0</v>
       </c>
       <c r="V4" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="W4" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="X4" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>57.0</v>
+        <v>49.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.0</v>
+        <v>42.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.0</v>
+        <v>86.0</v>
       </c>
       <c r="AC4" t="n">
         <v>0.36</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1</v>
+        <v>0.41</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" t="n">
         <v>0.36</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B5" t="n">
-        <v>1278.0</v>
+        <v>685.0</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>141</v>
@@ -4949,10 +4949,10 @@
         <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J5" t="n">
         <v>23.0</v>
@@ -4964,7 +4964,7 @@
         <v>#N/A</v>
       </c>
       <c r="M5" t="n">
-        <v>22.0</v>
+        <v>20.3</v>
       </c>
       <c r="N5" t="n">
         <v>7.0</v>
@@ -4976,69 +4976,69 @@
         <v>10.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="U5" t="n">
         <v>0.0</v>
       </c>
       <c r="V5" t="n">
-        <v>10.3</v>
+        <v>2.9</v>
       </c>
       <c r="W5" t="n">
-        <v>8.7</v>
+        <v>2.9</v>
       </c>
       <c r="X5" t="n">
         <v>2.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.0</v>
+        <v>5.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>29.0</v>
+        <v>60.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>55.0</v>
+        <v>62.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.0</v>
+        <v>98.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B6" t="n">
-        <v>2461.0</v>
+        <v>1281.0</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
         <v>117</v>
@@ -5047,91 +5047,91 @@
         <v>138</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" t="s">
         <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="I6" t="s">
         <v>194</v>
       </c>
       <c r="J6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K6" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="L6" t="e">
         <v>#N/A</v>
       </c>
       <c r="M6" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="N6" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="O6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P6" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q6" t="n">
         <v>5.0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="U6" t="n">
         <v>0.0</v>
       </c>
       <c r="V6" t="n">
-        <v>6.1</v>
+        <v>10.4</v>
       </c>
       <c r="W6" t="n">
-        <v>6.1</v>
+        <v>8.8</v>
       </c>
       <c r="X6" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.5</v>
+        <v>11.2</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>25.0</v>
+        <v>55.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>71.0</v>
+        <v>143.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="7">
@@ -5139,7 +5139,7 @@
         <v>59</v>
       </c>
       <c r="B7" t="n">
-        <v>780.0</v>
+        <v>781.0</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -5163,25 +5163,25 @@
         <v>200</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K7" t="n">
         <v>9.0</v>
       </c>
-      <c r="L7" t="n">
-        <v>966.0</v>
+      <c r="L7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M7" t="n">
-        <v>10.7</v>
+        <v>11.2</v>
       </c>
       <c r="N7" t="n">
         <v>3.0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q7" t="n">
         <v>3.0</v>
@@ -5205,158 +5205,158 @@
         <v>1.5</v>
       </c>
       <c r="X7" t="n">
-        <v>0.9</v>
+        <v>1.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0</v>
+        <v>0.09</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B8" t="n">
-        <v>735.0</v>
+        <v>2022.0</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
         <v>143</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I8" t="s">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="K8" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="L8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.0</v>
       </c>
-      <c r="L8" t="n">
-        <v>451.0</v>
-      </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T8" t="n">
         <v>5.0</v>
       </c>
-      <c r="N8" t="n">
+      <c r="U8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.0</v>
       </c>
-      <c r="O8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="W8" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.7</v>
-      </c>
       <c r="X8" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.0</v>
+        <v>21.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>27.0</v>
+        <v>49.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AD8" t="n">
         <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B9" t="n">
-        <v>814.0</v>
+        <v>736.0</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" t="s">
         <v>142</v>
@@ -5365,22 +5365,22 @@
         <v>143</v>
       </c>
       <c r="H9" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J9" t="n">
-        <v>22.0</v>
+        <v>18.0</v>
       </c>
       <c r="K9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="L9" t="e">
-        <v>#N/A</v>
+        <v>3.0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>471.0</v>
       </c>
       <c r="M9" t="n">
-        <v>21.5</v>
+        <v>5.2</v>
       </c>
       <c r="N9" t="n">
         <v>2.0</v>
@@ -5401,66 +5401,66 @@
         <v>0.0</v>
       </c>
       <c r="T9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
         <v>0.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>67.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.0</v>
+        <v>27.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="AD9" t="n">
         <v>0.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.09</v>
+        <v>0.38</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.07</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>2103.0</v>
+        <v>815.0</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
         <v>142</v>
@@ -5469,10 +5469,10 @@
         <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" t="n">
         <v>23.0</v>
@@ -5484,7 +5484,7 @@
         <v>#N/A</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1</v>
+        <v>22.5</v>
       </c>
       <c r="N10" t="n">
         <v>2.0</v>
@@ -5496,40 +5496,40 @@
         <v>2.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
         <v>4.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
         <v>0.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.0</v>
+        <v>70.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>47.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC10" t="n">
         <v>0.09</v>
@@ -5541,63 +5541,63 @@
         <v>0.09</v>
       </c>
       <c r="AF10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AH10" t="n">
         <v>0.05</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>1488.0</v>
+        <v>1171.0</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G11" t="s">
         <v>143</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="I11" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J11" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="K11" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="L11" t="e">
         <v>#N/A</v>
       </c>
       <c r="M11" t="n">
-        <v>23.0</v>
+        <v>12.3</v>
       </c>
       <c r="N11" t="n">
         <v>2.0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="Q11" t="n">
         <v>2.0</v>
@@ -5609,90 +5609,90 @@
         <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U11" t="n">
         <v>0.0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0</v>
+        <v>3.3</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>82.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.0</v>
+        <v>69.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0</v>
+        <v>0.32</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.09</v>
+        <v>0.49</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.1</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B12" t="n">
-        <v>2014.0</v>
+        <v>2112.0</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
         <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G12" t="s">
         <v>143</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
         <v>193</v>
       </c>
       <c r="J12" t="n">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="K12" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>974.0</v>
+        <v>23.0</v>
+      </c>
+      <c r="L12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M12" t="n">
-        <v>10.8</v>
+        <v>21.1</v>
       </c>
       <c r="N12" t="n">
         <v>2.0</v>
@@ -5704,108 +5704,108 @@
         <v>2.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T12" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="U12" t="n">
         <v>0.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="X12" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>23.0</v>
+        <v>86.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AD12" t="n">
         <v>0.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>2264.0</v>
+        <v>2550.0</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J13" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="K13" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="L13" t="e">
         <v>#N/A</v>
       </c>
       <c r="M13" t="n">
-        <v>12.3</v>
+        <v>15.3</v>
       </c>
       <c r="N13" t="n">
         <v>2.0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="P13" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="Q13" t="n">
         <v>2.0</v>
@@ -5817,60 +5817,60 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U13" t="n">
         <v>0.0</v>
       </c>
       <c r="V13" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="X13" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.0</v>
+        <v>4.1</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>35.0</v>
+        <v>53.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>23.0</v>
+        <v>88.0</v>
       </c>
       <c r="AC13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AH13" t="n">
         <v>0.16</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0.07</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n">
-        <v>223.0</v>
+        <v>1495.0</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
         <v>117</v>
@@ -5879,40 +5879,40 @@
         <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="I14" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J14" t="n">
-        <v>9.0</v>
+        <v>24.0</v>
       </c>
       <c r="K14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>583.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M14" t="n">
-        <v>6.5</v>
+        <v>24.0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O14" t="n">
         <v>0.0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R14" t="n">
         <v>0.0</v>
@@ -5921,103 +5921,103 @@
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" t="n">
         <v>0.0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="X14" t="n">
         <v>0.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>14.0</v>
+        <v>90.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AD14" t="n">
         <v>0.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>1119.0</v>
+        <v>2274.0</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
         <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
       </c>
       <c r="M15" t="n">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="N15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O15" t="n">
         <v>1.0</v>
       </c>
       <c r="P15" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>2.0</v>
       </c>
-      <c r="Q15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="R15" t="n">
         <v>0.0</v>
       </c>
@@ -6025,66 +6025,66 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="U15" t="n">
         <v>0.0</v>
       </c>
       <c r="V15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="X15" t="n">
         <v>1.1</v>
       </c>
-      <c r="W15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X15" t="n">
-        <v>1.2</v>
-      </c>
       <c r="Y15" t="n">
-        <v>2.3</v>
+        <v>2.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>39.0</v>
+        <v>42.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B16" t="n">
-        <v>1168.0</v>
+        <v>224.0</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
         <v>142</v>
@@ -6093,31 +6093,31 @@
         <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J16" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="L16" t="e">
-        <v>#N/A</v>
+        <v>6.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>600.0</v>
       </c>
       <c r="M16" t="n">
-        <v>11.8</v>
+        <v>6.7</v>
       </c>
       <c r="N16" t="n">
         <v>1.0</v>
       </c>
       <c r="O16" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q16" t="n">
         <v>1.0</v>
@@ -6129,66 +6129,66 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="U16" t="n">
         <v>0.0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="X16" t="n">
-        <v>2.6</v>
+        <v>0.0</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>38.0</v>
+        <v>15.0</v>
       </c>
       <c r="AB16" t="n">
-        <v>65.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.34</v>
+        <v>0.15</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B17" t="n">
-        <v>1654.0</v>
+        <v>1122.0</v>
       </c>
       <c r="C17" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -6197,22 +6197,22 @@
         <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="J17" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="K17" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>480.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="L17" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M17" t="n">
-        <v>5.3</v>
+        <v>13.5</v>
       </c>
       <c r="N17" t="n">
         <v>1.0</v>
@@ -6224,75 +6224,75 @@
         <v>2.0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="U17" t="n">
         <v>0.0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="X17" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>5.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>12.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0</v>
+        <v>0.07</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B18" t="n">
-        <v>1954.0</v>
+        <v>1661.0</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
         <v>142</v>
@@ -6301,22 +6301,22 @@
         <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="I18" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J18" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="K18" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="L18" t="e">
-        <v>#N/A</v>
+        <v>5.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>480.0</v>
       </c>
       <c r="M18" t="n">
-        <v>13.2</v>
+        <v>5.3</v>
       </c>
       <c r="N18" t="n">
         <v>1.0</v>
@@ -6328,75 +6328,75 @@
         <v>2.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="T18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Z18" t="n">
         <v>5.0</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>38.0</v>
-      </c>
       <c r="AA18" t="n">
-        <v>37.0</v>
+        <v>12.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.08</v>
+        <v>0.0</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B19" t="n">
-        <v>2540.0</v>
+        <v>1962.0</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F19" t="s">
         <v>142</v>
@@ -6405,32 +6405,32 @@
         <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J19" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="K19" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="L19" t="e">
         <v>#N/A</v>
       </c>
       <c r="M19" t="n">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="N19" t="n">
         <v>1.0</v>
       </c>
       <c r="O19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.0</v>
       </c>
-      <c r="P19" t="n">
-        <v>3.0</v>
-      </c>
       <c r="Q19" t="n">
         <v>1.0</v>
       </c>
@@ -6441,49 +6441,49 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="W19" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="X19" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="Z19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="AA19" t="n">
         <v>37.0</v>
       </c>
-      <c r="AA19" t="n">
-        <v>48.0</v>
-      </c>
       <c r="AB19" t="n">
-        <v>82.0</v>
+        <v>45.0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.07</v>
+        <v>0.08</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.15</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="20">
@@ -6491,7 +6491,7 @@
         <v>51</v>
       </c>
       <c r="B20" t="n">
-        <v>230.0</v>
+        <v>231.0</v>
       </c>
       <c r="C20" t="s">
         <v>97</v>
@@ -6512,19 +6512,19 @@
         <v>170</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J20" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="K20" t="n">
         <v>10.0</v>
       </c>
       <c r="L20" t="n">
-        <v>890.0</v>
+        <v>927.0</v>
       </c>
       <c r="M20" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="N20" t="n">
         <v>1.0</v>
@@ -6563,13 +6563,13 @@
         <v>2.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="AC20" t="n">
         <v>0.1</v>
@@ -6578,16 +6578,16 @@
         <v>0.1</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AF20" t="n">
         <v>0.1</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="21">
@@ -6595,7 +6595,7 @@
         <v>66</v>
       </c>
       <c r="B21" t="n">
-        <v>730.0</v>
+        <v>731.0</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
@@ -6619,16 +6619,16 @@
         <v>199</v>
       </c>
       <c r="J21" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="L21" t="n">
-        <v>357.0</v>
+        <v>428.0</v>
       </c>
       <c r="M21" t="n">
-        <v>4.0</v>
+        <v>4.8</v>
       </c>
       <c r="N21" t="n">
         <v>1.0</v>
@@ -6655,43 +6655,43 @@
         <v>0.0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.7</v>
+        <v>1.0</v>
       </c>
       <c r="X21" t="n">
         <v>0.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Z21" t="n">
         <v>11.0</v>
       </c>
       <c r="AA21" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB21" t="n">
         <v>15.0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
@@ -6699,7 +6699,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="n">
-        <v>931.0</v>
+        <v>932.0</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
@@ -6720,19 +6720,19 @@
         <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J22" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K22" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L22" t="e">
         <v>#N/A</v>
       </c>
       <c r="M22" t="n">
-        <v>13.1</v>
+        <v>13.7</v>
       </c>
       <c r="N22" t="n">
         <v>1.0</v>
@@ -6774,22 +6774,22 @@
         <v>2.0</v>
       </c>
       <c r="AA22" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AB22" t="n">
         <v>4.0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AE22" t="n">
         <v>0.15</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
       <c r="AG22" t="n">
         <v>0.15</v>
@@ -6803,7 +6803,7 @@
         <v>54</v>
       </c>
       <c r="B23" t="n">
-        <v>1504.0</v>
+        <v>1511.0</v>
       </c>
       <c r="C23" t="s">
         <v>100</v>
@@ -6824,7 +6824,7 @@
         <v>173</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J23" t="n">
         <v>23.0</v>
@@ -6863,10 +6863,10 @@
         <v>0.0</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="W23" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="X23" t="n">
         <v>1.0</v>
@@ -6899,7 +6899,7 @@
         <v>0.09</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="24">
@@ -6907,7 +6907,7 @@
         <v>58</v>
       </c>
       <c r="B24" t="n">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
@@ -6916,7 +6916,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>142</v>
@@ -6931,61 +6931,61 @@
         <v>192</v>
       </c>
       <c r="J24" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA24" t="n">
         <v>3.0</v>
       </c>
-      <c r="K24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.0</v>
-      </c>
       <c r="AB24" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC24" t="n">
         <v>0.0</v>
@@ -7003,7 +7003,7 @@
         <v>0.0</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="25">
@@ -7011,7 +7011,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="n">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="C25" t="s">
         <v>90</v>
@@ -7032,7 +7032,7 @@
         <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J25" t="n">
         <v>10.0</v>
@@ -7115,7 +7115,7 @@
         <v>50</v>
       </c>
       <c r="B26" t="n">
-        <v>441.0</v>
+        <v>442.0</v>
       </c>
       <c r="C26" t="s">
         <v>96</v>
@@ -7136,7 +7136,7 @@
         <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J26" t="n">
         <v>3.0</v>
@@ -7219,7 +7219,7 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>593.0</v>
+        <v>594.0</v>
       </c>
       <c r="C27" t="s">
         <v>76</v>
@@ -7243,16 +7243,16 @@
         <v>190</v>
       </c>
       <c r="J27" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K27" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L27" t="e">
         <v>#N/A</v>
       </c>
       <c r="M27" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -7323,7 +7323,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>715.0</v>
+        <v>716.0</v>
       </c>
       <c r="C28" t="s">
         <v>72</v>
@@ -7347,7 +7347,7 @@
         <v>190</v>
       </c>
       <c r="J28" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K28" t="n">
         <v>14.0</v>
@@ -7356,7 +7356,7 @@
         <v>#N/A</v>
       </c>
       <c r="M28" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -7398,7 +7398,7 @@
         <v>10.0</v>
       </c>
       <c r="AA28" t="n">
-        <v>39.0</v>
+        <v>40.0</v>
       </c>
       <c r="AB28" t="n">
         <v>9.0</v>
@@ -7427,7 +7427,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>970.0</v>
+        <v>972.0</v>
       </c>
       <c r="C29" t="s">
         <v>73</v>
@@ -7451,16 +7451,16 @@
         <v>191</v>
       </c>
       <c r="J29" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="K29" t="n">
         <v>19.0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>18.0</v>
       </c>
       <c r="L29" t="e">
         <v>#N/A</v>
       </c>
       <c r="M29" t="n">
-        <v>18.0</v>
+        <v>18.8</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -7487,16 +7487,16 @@
         <v>0.0</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="W29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="X29" t="n">
         <v>0.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z29" t="n">
         <v>26.0</v>
@@ -7523,7 +7523,7 @@
         <v>0.0</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="30">
@@ -7531,7 +7531,7 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>1018.0</v>
+        <v>1020.0</v>
       </c>
       <c r="C30" t="s">
         <v>82</v>
@@ -7635,7 +7635,7 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>1155.0</v>
+        <v>1158.0</v>
       </c>
       <c r="C31" t="s">
         <v>84</v>
@@ -7656,19 +7656,19 @@
         <v>157</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J31" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K31" t="n">
         <v>6.0</v>
       </c>
-      <c r="K31" t="n">
-        <v>5.0</v>
-      </c>
       <c r="L31" t="n">
-        <v>471.0</v>
+        <v>530.0</v>
       </c>
       <c r="M31" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -7701,34 +7701,34 @@
         <v>0.1</v>
       </c>
       <c r="X31" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AA31" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC31" t="n">
         <v>0.0</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AF31" t="n">
         <v>0.0</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AH31" t="n">
         <v>0.02</v>
@@ -7739,7 +7739,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="n">
-        <v>1484.0</v>
+        <v>1491.0</v>
       </c>
       <c r="C32" t="s">
         <v>107</v>
@@ -7760,19 +7760,19 @@
         <v>179</v>
       </c>
       <c r="I32" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J32" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L32" t="n">
-        <v>174.0</v>
+        <v>234.0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="N32" t="n">
         <v>0.0</v>
@@ -7808,16 +7808,16 @@
         <v>0.2</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="Z32" t="n">
         <v>3.0</v>
       </c>
       <c r="AA32" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="AB32" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC32" t="n">
         <v>0.0</v>
@@ -7835,7 +7835,7 @@
         <v>0.0</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="33">
@@ -7843,7 +7843,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>1598.0</v>
+        <v>1605.0</v>
       </c>
       <c r="C33" t="s">
         <v>85</v>
@@ -7864,19 +7864,19 @@
         <v>158</v>
       </c>
       <c r="I33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J33" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="L33" t="e">
         <v>#N/A</v>
       </c>
       <c r="M33" t="n">
-        <v>14.7</v>
+        <v>15.7</v>
       </c>
       <c r="N33" t="n">
         <v>0.0</v>
@@ -7909,37 +7909,37 @@
         <v>0.1</v>
       </c>
       <c r="X33" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>42.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA33" t="n">
-        <v>49.0</v>
+        <v>51.0</v>
       </c>
       <c r="AB33" t="n">
-        <v>60.0</v>
+        <v>66.0</v>
       </c>
       <c r="AC33" t="n">
         <v>0.0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AF33" t="n">
         <v>0.0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.01</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -7947,7 +7947,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>1608.0</v>
+        <v>1615.0</v>
       </c>
       <c r="C34" t="s">
         <v>108</v>
@@ -7968,7 +7968,7 @@
         <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J34" t="n">
         <v>1.0</v>
@@ -8051,7 +8051,7 @@
         <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>1856.0</v>
+        <v>1864.0</v>
       </c>
       <c r="C35" t="s">
         <v>109</v>
@@ -8155,7 +8155,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="n">
-        <v>2003.0</v>
+        <v>2011.0</v>
       </c>
       <c r="C36" t="s">
         <v>110</v>
@@ -8176,7 +8176,7 @@
         <v>182</v>
       </c>
       <c r="I36" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J36" t="n">
         <v>6.0</v>
@@ -8259,7 +8259,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="n">
-        <v>393.0</v>
+        <v>394.0</v>
       </c>
       <c r="C37" t="s">
         <v>98</v>
@@ -8283,16 +8283,16 @@
         <v>199</v>
       </c>
       <c r="J37" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="L37" t="n">
-        <v>423.0</v>
+        <v>476.0</v>
       </c>
       <c r="M37" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="N37" t="n">
         <v>0.0</v>
@@ -8331,13 +8331,13 @@
         <v>0.3</v>
       </c>
       <c r="Z37" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="AA37" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="AB37" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
       <c r="AC37" t="n">
         <v>0.0</v>
@@ -8363,7 +8363,7 @@
         <v>47</v>
       </c>
       <c r="B38" t="n">
-        <v>844.0</v>
+        <v>845.0</v>
       </c>
       <c r="C38" t="s">
         <v>93</v>
@@ -8387,16 +8387,16 @@
         <v>192</v>
       </c>
       <c r="J38" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="K38" t="n">
         <v>22.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>21.0</v>
       </c>
       <c r="L38" t="e">
         <v>#N/A</v>
       </c>
       <c r="M38" t="n">
-        <v>20.9</v>
+        <v>21.9</v>
       </c>
       <c r="N38" t="n">
         <v>0.0</v>
@@ -8438,7 +8438,7 @@
         <v>31.0</v>
       </c>
       <c r="AA38" t="n">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="AB38" t="n">
         <v>51.0</v>
@@ -8467,7 +8467,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="n">
-        <v>1262.0</v>
+        <v>1265.0</v>
       </c>
       <c r="C39" t="s">
         <v>113</v>
@@ -8488,7 +8488,7 @@
         <v>185</v>
       </c>
       <c r="I39" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="J39" t="n">
         <v>2.0</v>
@@ -8571,7 +8571,7 @@
         <v>55</v>
       </c>
       <c r="B40" t="n">
-        <v>1734.0</v>
+        <v>1741.0</v>
       </c>
       <c r="C40" t="s">
         <v>101</v>
@@ -8595,16 +8595,16 @@
         <v>191</v>
       </c>
       <c r="J40" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="K40" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="L40" t="e">
         <v>#N/A</v>
       </c>
       <c r="M40" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="N40" t="n">
         <v>0.0</v>
@@ -8675,7 +8675,7 @@
         <v>56</v>
       </c>
       <c r="B41" t="n">
-        <v>2011.0</v>
+        <v>2019.0</v>
       </c>
       <c r="C41" t="s">
         <v>102</v>
@@ -8696,19 +8696,19 @@
         <v>175</v>
       </c>
       <c r="I41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J41" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="K41" t="n">
         <v>1.0</v>
       </c>
       <c r="L41" t="n">
-        <v>261.0</v>
+        <v>267.0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.9</v>
+        <v>3.0</v>
       </c>
       <c r="N41" t="n">
         <v>0.0</v>
@@ -8750,10 +8750,10 @@
         <v>8.0</v>
       </c>
       <c r="AA41" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AB41" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="AC41" t="n">
         <v>0.0</v>
@@ -8779,7 +8779,7 @@
         <v>68</v>
       </c>
       <c r="B42" t="n">
-        <v>2254.0</v>
+        <v>2264.0</v>
       </c>
       <c r="C42" t="s">
         <v>114</v>
@@ -8803,16 +8803,16 @@
         <v>199</v>
       </c>
       <c r="J42" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="K42" t="n">
         <v>0.0</v>
       </c>
       <c r="L42" t="n">
-        <v>105.0</v>
+        <v>124.0</v>
       </c>
       <c r="M42" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="N42" t="n">
         <v>0.0</v>
@@ -8863,19 +8863,19 @@
         <v>0.0</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AF42" t="n">
         <v>0.0</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.86</v>
+        <v>0.73</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
@@ -8883,7 +8883,7 @@
         <v>69</v>
       </c>
       <c r="B43" t="n">
-        <v>2290.0</v>
+        <v>2300.0</v>
       </c>
       <c r="C43" t="s">
         <v>115</v>
@@ -8904,19 +8904,19 @@
         <v>187</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J43" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="L43" t="n">
-        <v>388.0</v>
+        <v>441.0</v>
       </c>
       <c r="M43" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="N43" t="n">
         <v>0.0</v>
@@ -8949,19 +8949,19 @@
         <v>0.9</v>
       </c>
       <c r="X43" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="Z43" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="AA43" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="AB43" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="AC43" t="n">
         <v>0.0</v>
@@ -8979,7 +8979,7 @@
         <v>0.0</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="44">
@@ -8987,7 +8987,7 @@
         <v>57</v>
       </c>
       <c r="B44" t="n">
-        <v>2298.0</v>
+        <v>2308.0</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
@@ -9008,7 +9008,7 @@
         <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J44" t="n">
         <v>13.0</v>
@@ -9091,7 +9091,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>2448.0</v>
+        <v>2458.0</v>
       </c>
       <c r="C45" t="s">
         <v>95</v>
@@ -9115,16 +9115,16 @@
         <v>198</v>
       </c>
       <c r="J45" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="K45" t="n">
         <v>10.0</v>
       </c>
       <c r="L45" t="n">
-        <v>801.0</v>
+        <v>838.0</v>
       </c>
       <c r="M45" t="n">
-        <v>8.9</v>
+        <v>9.3</v>
       </c>
       <c r="N45" t="n">
         <v>0.0</v>
@@ -9157,19 +9157,19 @@
         <v>0.3</v>
       </c>
       <c r="X45" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="AA45" t="n">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="AB45" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="AC45" t="n">
         <v>0.0</v>
@@ -9195,7 +9195,7 @@
         <v>70</v>
       </c>
       <c r="B46" t="n">
-        <v>2451.0</v>
+        <v>2461.0</v>
       </c>
       <c r="C46" t="s">
         <v>116</v>
@@ -9299,7 +9299,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="n">
-        <v>2498.0</v>
+        <v>2508.0</v>
       </c>
       <c r="C47" t="s">
         <v>88</v>
@@ -9323,16 +9323,16 @@
         <v>190</v>
       </c>
       <c r="J47" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="K47" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="L47" t="e">
         <v>#N/A</v>
       </c>
       <c r="M47" t="n">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="N47" t="n">
         <v>0.0</v>
@@ -9359,10 +9359,10 @@
         <v>0.0</v>
       </c>
       <c r="V47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="W47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="X47" t="n">
         <v>0.9</v>
@@ -9371,13 +9371,13 @@
         <v>1.1</v>
       </c>
       <c r="Z47" t="n">
-        <v>37.0</v>
+        <v>40.0</v>
       </c>
       <c r="AA47" t="n">
-        <v>54.0</v>
+        <v>59.0</v>
       </c>
       <c r="AB47" t="n">
-        <v>54.0</v>
+        <v>68.0</v>
       </c>
       <c r="AC47" t="n">
         <v>0.0</v>
